--- a/PresetParameterCreator/ParameterReferenceListList.xlsx
+++ b/PresetParameterCreator/ParameterReferenceListList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>Parameters</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>Used for event energy calculation</t>
+  </si>
+  <si>
+    <t>Para.durThr;</t>
+  </si>
+  <si>
+    <t>The inclusion of this is essential for the morphology detector.</t>
   </si>
 </sst>
 </file>
@@ -599,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1297,7 +1303,7 @@
         <v>30</v>
       </c>
       <c r="G39">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
         <v>58</v>
@@ -1370,6 +1376,26 @@
       </c>
       <c r="I43" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44">
+        <v>0.99</v>
+      </c>
+      <c r="G44">
+        <v>0.99</v>
+      </c>
+      <c r="I44" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
